--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prasanna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D807D7C8-ADE8-4374-AACB-469C887748B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F093A9-EB7B-494B-8E55-F1EAC6DFCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prasanna" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>inprogress</t>
+  </si>
+  <si>
+    <t>4. pandas practice</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -98,12 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,20 +416,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -428,7 +438,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -439,7 +449,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -451,12 +461,52 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45637</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F093A9-EB7B-494B-8E55-F1EAC6DFCF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C45735D-3A0A-4806-8A17-1A09DD4F9A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -64,13 +64,61 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>data retrive</t>
+  </si>
+  <si>
+    <t>add columns</t>
+  </si>
+  <si>
+    <t>create table</t>
+  </si>
+  <si>
+    <t>insert values in table</t>
+  </si>
+  <si>
+    <t>update table , values</t>
+  </si>
+  <si>
+    <t>aggregation functions (max,min,sum,avg,count,distrinct)</t>
+  </si>
+  <si>
+    <t>conditions (in,not, not in)</t>
+  </si>
+  <si>
+    <t>filters (and, or,multiple conditions)</t>
+  </si>
+  <si>
+    <t>delete (columns,value,table)</t>
+  </si>
+  <si>
+    <t>drop table</t>
+  </si>
+  <si>
+    <t>2. git hub practice</t>
+  </si>
+  <si>
+    <t>commends practice</t>
+  </si>
+  <si>
+    <t>added file (using commend)</t>
+  </si>
+  <si>
+    <t>3. pandas practice</t>
+  </si>
+  <si>
+    <t>filters (equal to, not equal to,and, or, isin, not isin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +130,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF25265E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,13 +162,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,121 +461,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="1" t="s">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2"/>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45638</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C45735D-3A0A-4806-8A17-1A09DD4F9A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F75AB2B-63A8-4C08-8BC2-018E7EBDDBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4908" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prasanna" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,90 @@
   </si>
   <si>
     <t>filters (equal to, not equal to,and, or, isin, not isin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table create </t>
+  </si>
+  <si>
+    <t>insert values</t>
+  </si>
+  <si>
+    <t>data retrive(all values)</t>
+  </si>
+  <si>
+    <t>filters(single value)</t>
+  </si>
+  <si>
+    <t>conditions (and &amp; or,not)</t>
+  </si>
+  <si>
+    <t>multiple conditions</t>
+  </si>
+  <si>
+    <t>update table (values)</t>
+  </si>
+  <si>
+    <t>add column in table</t>
+  </si>
+  <si>
+    <t>add column in table (data type)</t>
+  </si>
+  <si>
+    <t>rename column name</t>
+  </si>
+  <si>
+    <t>add values in column</t>
+  </si>
+  <si>
+    <t>delete value in column</t>
+  </si>
+  <si>
+    <t>delete all data in table ( when table is empty)</t>
+  </si>
+  <si>
+    <t>delete table</t>
+  </si>
+  <si>
+    <t>table_rename</t>
+  </si>
+  <si>
+    <t>not equal to  condition</t>
+  </si>
+  <si>
+    <t>joins (left,right,inner,outer)</t>
+  </si>
+  <si>
+    <t>in condition</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>column delete</t>
+  </si>
+  <si>
+    <t>group by</t>
+  </si>
+  <si>
+    <t>Aggregation functions(avg,max,min,count,distrinct,sum)</t>
+  </si>
+  <si>
+    <t>order by</t>
+  </si>
+  <si>
+    <t>having condition</t>
+  </si>
+  <si>
+    <t>not in</t>
+  </si>
+  <si>
+    <t>is null</t>
+  </si>
+  <si>
+    <t>is not null</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
 </sst>
 </file>
@@ -162,23 +246,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,41 +550,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,7 +593,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -516,7 +605,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -528,7 +617,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -537,7 +626,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -548,6 +637,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -556,6 +646,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -564,6 +655,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -572,10 +664,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>45638</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -586,6 +678,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -594,6 +687,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -602,6 +696,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -610,6 +705,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -617,8 +713,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -629,6 +726,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -636,7 +734,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -644,7 +743,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -652,7 +752,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -660,7 +761,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -671,7 +773,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -679,7 +782,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -690,8 +794,330 @@
         <v>4</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>45639</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="7"/>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="7"/>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="7"/>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="7"/>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="7"/>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B23:B51"/>
+    <mergeCell ref="A23:A53"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F75AB2B-63A8-4C08-8BC2-018E7EBDDBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D8D55A-1298-4E4E-89CB-1333069B249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4908" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prasanna" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>like</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>(Table create, Insert values, Data retrieve (all values), Filters (single value), Conditions (AND &amp; OR), Multiple conditions, Update table (values), Add column in table, Add column in table (data type), Rename column name, Add values in column, Delete value in column, Delete all data in table (when table is empty), Delete table, Table rename, Not equal to condition, Joins (LEFT, RIGHT, INNER, OUTER), IN condition, BETWEEN, Column delete, Group by, Aggregation functions (AVG, MAX, MIN, COUNT, DISTINCT, SUM), Order by, Having condition, Not IN, IS NULL, IS NOT NULL, LIKE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aws_quicksight_skill set </t>
+  </si>
+  <si>
+    <t>skill set _created</t>
   </si>
 </sst>
 </file>
@@ -226,12 +241,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,6 +289,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,16 +579,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
@@ -1112,8 +1141,55 @@
         <v>4</v>
       </c>
     </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>45640</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>45641</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>45642</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="B23:B51"/>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D8D55A-1298-4E4E-89CB-1333069B249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D866A648-6D74-4576-84B3-AD5DC2E2C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>skill set _created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job creation </t>
+  </si>
+  <si>
+    <t>pandas practice</t>
+  </si>
+  <si>
+    <t>aws_glue in aws qickisght (vedio)</t>
+  </si>
+  <si>
+    <t>basic checks,append,group by (aggregation_functions, merges)</t>
   </si>
 </sst>
 </file>
@@ -267,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -278,6 +290,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,14 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,24 +609,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -622,7 +635,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -634,7 +647,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -646,7 +659,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -655,7 +668,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -666,7 +679,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -675,7 +688,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -684,7 +697,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -693,7 +706,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>45638</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -707,7 +720,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="10"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -716,7 +729,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="10"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -725,7 +738,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="10"/>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -734,7 +747,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -743,7 +756,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -755,7 +768,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="10"/>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -764,7 +777,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="10"/>
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -773,7 +786,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="10"/>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -782,7 +795,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="10"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -791,7 +804,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -803,7 +816,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="10"/>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -812,7 +825,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="10"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -824,10 +837,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>45639</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -838,8 +851,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -848,8 +861,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="11"/>
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -858,8 +871,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>32</v>
       </c>
@@ -868,8 +881,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="11"/>
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -878,8 +891,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="11"/>
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -888,8 +901,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="11"/>
       <c r="C29" t="s">
         <v>35</v>
       </c>
@@ -898,8 +911,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="11"/>
       <c r="C30" t="s">
         <v>36</v>
       </c>
@@ -908,8 +921,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="11"/>
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -918,8 +931,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
       <c r="C32" t="s">
         <v>38</v>
       </c>
@@ -928,8 +941,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="11"/>
       <c r="C33" t="s">
         <v>39</v>
       </c>
@@ -938,8 +951,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
       <c r="C34" t="s">
         <v>40</v>
       </c>
@@ -948,8 +961,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="11"/>
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -958,8 +971,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -968,8 +981,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="11"/>
       <c r="C37" t="s">
         <v>43</v>
       </c>
@@ -978,8 +991,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="11"/>
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -988,8 +1001,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="11"/>
       <c r="C39" t="s">
         <v>45</v>
       </c>
@@ -998,8 +1011,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -1008,8 +1021,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
       <c r="C41" t="s">
         <v>47</v>
       </c>
@@ -1018,8 +1031,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="11"/>
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -1028,8 +1041,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="11"/>
       <c r="C43" t="s">
         <v>49</v>
       </c>
@@ -1038,8 +1051,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
@@ -1048,8 +1061,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="11"/>
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -1058,8 +1071,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="11"/>
       <c r="C46" t="s">
         <v>23</v>
       </c>
@@ -1068,8 +1081,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="11"/>
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -1078,8 +1091,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="11"/>
       <c r="C48" t="s">
         <v>53</v>
       </c>
@@ -1088,8 +1101,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="11"/>
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -1098,8 +1111,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
       <c r="C50" t="s">
         <v>55</v>
       </c>
@@ -1108,8 +1121,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="11"/>
       <c r="C51" t="s">
         <v>56</v>
       </c>
@@ -1118,7 +1131,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
+      <c r="A52" s="9"/>
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1143,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
+      <c r="A53" s="9"/>
       <c r="B53" t="s">
         <v>27</v>
       </c>
@@ -1142,32 +1155,32 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+      <c r="A54" s="5">
         <v>45640</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+      <c r="A55" s="5">
         <v>45641</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
+      <c r="A56" s="8">
         <v>45642</v>
       </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="2" t="s">
         <v>59</v>
       </c>
@@ -1176,7 +1189,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
+      <c r="A57" s="8"/>
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -1187,18 +1200,43 @@
         <v>9</v>
       </c>
     </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
+        <v>45643</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="B23:B51"/>
     <mergeCell ref="A23:A53"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D866A648-6D74-4576-84B3-AD5DC2E2C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE116FC-6F34-48B8-8DD4-89276F2FF894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -223,6 +223,30 @@
   </si>
   <si>
     <t>basic checks,append,group by (aggregation_functions, merges)</t>
+  </si>
+  <si>
+    <t>data catalog</t>
+  </si>
+  <si>
+    <t>sql_meeting</t>
+  </si>
+  <si>
+    <t>data retrieve,where conditions (and ,or, multiple and , or),aggregation functions</t>
+  </si>
+  <si>
+    <t>supply chain management flow</t>
+  </si>
+  <si>
+    <t>presentation to team</t>
+  </si>
+  <si>
+    <t>projectwork</t>
+  </si>
+  <si>
+    <t>aws_quicksight</t>
+  </si>
+  <si>
+    <t>sql_practice</t>
   </si>
 </sst>
 </file>
@@ -279,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -311,7 +335,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1203,9 @@
       <c r="A56" s="8">
         <v>45642</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>59</v>
       </c>
@@ -1201,7 +1226,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+      <c r="A58" s="8">
         <v>45643</v>
       </c>
       <c r="B58" t="s">
@@ -1215,6 +1240,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
       <c r="B59" t="s">
         <v>63</v>
       </c>
@@ -1225,13 +1251,61 @@
         <v>9</v>
       </c>
     </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>45644</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A60:A62"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A22"/>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE116FC-6F34-48B8-8DD4-89276F2FF894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068F0A0C-AE97-4802-B8C2-9B91AEE603B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>sql_practice</t>
+  </si>
+  <si>
+    <t>html code</t>
+  </si>
+  <si>
+    <t>ppt slides 32,33</t>
   </si>
 </sst>
 </file>
@@ -303,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -324,6 +330,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -331,9 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,24 +641,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -658,7 +667,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -670,7 +679,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -682,7 +691,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -691,7 +700,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -702,7 +711,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -711,7 +720,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -720,7 +729,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -729,7 +738,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>45638</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -743,7 +752,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -752,7 +761,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -761,7 +770,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -770,7 +779,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -779,7 +788,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -791,7 +800,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -800,7 +809,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -809,7 +818,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -818,7 +827,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -827,7 +836,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -839,7 +848,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -848,7 +857,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -860,10 +869,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="11">
         <v>45639</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -874,8 +883,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="13"/>
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -884,8 +893,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="13"/>
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -894,8 +903,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" t="s">
         <v>32</v>
       </c>
@@ -904,8 +913,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -914,8 +923,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -924,8 +933,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
       <c r="C29" t="s">
         <v>35</v>
       </c>
@@ -934,8 +943,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" t="s">
         <v>36</v>
       </c>
@@ -944,8 +953,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -954,8 +963,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
       <c r="C32" t="s">
         <v>38</v>
       </c>
@@ -964,8 +973,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
       <c r="C33" t="s">
         <v>39</v>
       </c>
@@ -974,8 +983,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
       <c r="C34" t="s">
         <v>40</v>
       </c>
@@ -984,8 +993,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -994,8 +1003,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="13"/>
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -1004,8 +1013,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" t="s">
         <v>43</v>
       </c>
@@ -1014,8 +1023,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="13"/>
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -1024,8 +1033,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="13"/>
       <c r="C39" t="s">
         <v>45</v>
       </c>
@@ -1034,8 +1043,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -1044,8 +1053,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" t="s">
         <v>47</v>
       </c>
@@ -1054,8 +1063,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="13"/>
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -1064,8 +1073,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="13"/>
       <c r="C43" t="s">
         <v>49</v>
       </c>
@@ -1074,8 +1083,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
@@ -1084,8 +1093,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="13"/>
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -1094,8 +1103,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="13"/>
       <c r="C46" t="s">
         <v>23</v>
       </c>
@@ -1104,8 +1113,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="13"/>
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -1114,8 +1123,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="13"/>
       <c r="C48" t="s">
         <v>53</v>
       </c>
@@ -1124,8 +1133,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="13"/>
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -1134,8 +1143,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="13"/>
       <c r="C50" t="s">
         <v>55</v>
       </c>
@@ -1144,8 +1153,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" t="s">
         <v>56</v>
       </c>
@@ -1154,7 +1163,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
+      <c r="A52" s="11"/>
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -1166,7 +1175,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="11"/>
       <c r="B53" t="s">
         <v>27</v>
       </c>
@@ -1200,7 +1209,7 @@
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+      <c r="A56" s="9">
         <v>45642</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -1214,7 +1223,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
+      <c r="A57" s="9"/>
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -1226,7 +1235,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="A58" s="9">
         <v>45643</v>
       </c>
       <c r="B58" t="s">
@@ -1240,7 +1249,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
       <c r="B59" t="s">
         <v>63</v>
       </c>
@@ -1252,7 +1261,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+      <c r="A60" s="9">
         <v>45644</v>
       </c>
       <c r="B60" t="s">
@@ -1266,7 +1275,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
+      <c r="A61" s="9"/>
       <c r="B61" t="s">
         <v>67</v>
       </c>
@@ -1278,7 +1287,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="B62" t="s">
         <v>69</v>
       </c>
@@ -1290,10 +1299,22 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
       <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>71</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068F0A0C-AE97-4802-B8C2-9B91AEE603B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8396E5D-7194-4CC2-82D8-05616C4E0131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="prasanna" sheetId="1" r:id="rId1"/>
+    <sheet name="Prasanna_01_2025" sheetId="2" r:id="rId1"/>
+    <sheet name="prasanna" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -253,13 +254,112 @@
   </si>
   <si>
     <t>ppt slides 32,33</t>
+  </si>
+  <si>
+    <t>aws glue over view  document</t>
+  </si>
+  <si>
+    <t>aws glue over view</t>
+  </si>
+  <si>
+    <t>sql meeting</t>
+  </si>
+  <si>
+    <t>supply_chain management flow</t>
+  </si>
+  <si>
+    <t>project work</t>
+  </si>
+  <si>
+    <t>ppt slides 34,35,36,37</t>
+  </si>
+  <si>
+    <t>in and not conditions</t>
+  </si>
+  <si>
+    <t>share holders</t>
+  </si>
+  <si>
+    <t>aws quicksight</t>
+  </si>
+  <si>
+    <t>background setup</t>
+  </si>
+  <si>
+    <t>not in ,between</t>
+  </si>
+  <si>
+    <t>docker file create and run file</t>
+  </si>
+  <si>
+    <t>virtual environment create</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>aws quickdight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs code docker file create </t>
+  </si>
+  <si>
+    <t>vs code</t>
+  </si>
+  <si>
+    <t>afrenoon leave</t>
+  </si>
+  <si>
+    <t>25-12-20224 to 01-01-2025    holidays</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
+  </si>
+  <si>
+    <t>Sql practice</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>saturday</t>
+  </si>
+  <si>
+    <t>aws_quicksight_project_task</t>
+  </si>
+  <si>
+    <t>Sql_practice</t>
+  </si>
+  <si>
+    <t>traing (certificate 1hour)</t>
+  </si>
+  <si>
+    <t>insert, delete,retrieve,update,order by,sum,create_table,conditionbased</t>
+  </si>
+  <si>
+    <t>sql and python concepts gathere</t>
+  </si>
+  <si>
+    <t>overall practice</t>
+  </si>
+  <si>
+    <t>some concepts</t>
+  </si>
+  <si>
+    <t>excel_sheet data to create pivot table and generate a graph about tasks ( remaining tasks completed)</t>
+  </si>
+  <si>
+    <t>excel_sheet data to create pivot table and generate a graph about tasks  (2 task completed)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +382,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +400,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -326,13 +445,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -343,6 +470,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,11 +753,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555B3504-34D2-4369-86F7-B6D585E34A71}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>45658</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>45659</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>45660</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45661</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>45662</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>45663</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +1073,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -679,7 +1085,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -691,7 +1097,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -700,7 +1106,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="15">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -711,7 +1117,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -720,7 +1126,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -729,7 +1135,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -738,7 +1144,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="16">
         <v>45638</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -752,7 +1158,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -761,7 +1167,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="16"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -770,7 +1176,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="16"/>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -779,7 +1185,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="16"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -788,7 +1194,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="16"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -800,7 +1206,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="16"/>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -809,7 +1215,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="16"/>
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -818,7 +1224,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="16"/>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -827,7 +1233,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="16"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -836,7 +1242,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="16"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -848,7 +1254,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="16"/>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -857,7 +1263,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="16"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -869,10 +1275,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="15">
         <v>45639</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -883,8 +1289,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -893,8 +1299,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -903,8 +1309,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
       <c r="C26" t="s">
         <v>32</v>
       </c>
@@ -913,8 +1319,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -923,8 +1329,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -933,8 +1339,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
       <c r="C29" t="s">
         <v>35</v>
       </c>
@@ -943,8 +1349,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
       <c r="C30" t="s">
         <v>36</v>
       </c>
@@ -953,8 +1359,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -963,8 +1369,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
       <c r="C32" t="s">
         <v>38</v>
       </c>
@@ -973,8 +1379,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
       <c r="C33" t="s">
         <v>39</v>
       </c>
@@ -983,8 +1389,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
       <c r="C34" t="s">
         <v>40</v>
       </c>
@@ -993,8 +1399,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -1003,8 +1409,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="17"/>
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -1013,8 +1419,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="17"/>
       <c r="C37" t="s">
         <v>43</v>
       </c>
@@ -1023,8 +1429,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -1033,8 +1439,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
       <c r="C39" t="s">
         <v>45</v>
       </c>
@@ -1043,8 +1449,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="17"/>
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -1053,8 +1459,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="17"/>
       <c r="C41" t="s">
         <v>47</v>
       </c>
@@ -1063,8 +1469,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="17"/>
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -1073,8 +1479,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="17"/>
       <c r="C43" t="s">
         <v>49</v>
       </c>
@@ -1083,8 +1489,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
@@ -1093,8 +1499,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="17"/>
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -1103,8 +1509,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
       <c r="C46" t="s">
         <v>23</v>
       </c>
@@ -1113,8 +1519,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="17"/>
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -1123,8 +1529,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="17"/>
       <c r="C48" t="s">
         <v>53</v>
       </c>
@@ -1133,8 +1539,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="17"/>
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -1143,8 +1549,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="17"/>
       <c r="C50" t="s">
         <v>55</v>
       </c>
@@ -1153,8 +1559,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>56</v>
       </c>
@@ -1163,7 +1569,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
+      <c r="A52" s="15"/>
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1581,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
+      <c r="A53" s="15"/>
       <c r="B53" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1615,7 @@
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
+      <c r="A56" s="11">
         <v>45642</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -1223,7 +1629,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
+      <c r="A57" s="11"/>
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -1235,7 +1641,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
+      <c r="A58" s="11">
         <v>45643</v>
       </c>
       <c r="B58" t="s">
@@ -1249,7 +1655,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="11"/>
       <c r="B59" t="s">
         <v>63</v>
       </c>
@@ -1261,7 +1667,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
+      <c r="A60" s="11">
         <v>45644</v>
       </c>
       <c r="B60" t="s">
@@ -1275,7 +1681,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
+      <c r="A61" s="11"/>
       <c r="B61" t="s">
         <v>67</v>
       </c>
@@ -1287,7 +1693,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
+      <c r="A62" s="11"/>
       <c r="B62" t="s">
         <v>69</v>
       </c>
@@ -1299,7 +1705,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
+      <c r="A63" s="11"/>
       <c r="B63" t="s">
         <v>74</v>
       </c>
@@ -1311,28 +1717,234 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
       <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>72</v>
       </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>45645</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="11"/>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="11"/>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>45646</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="11"/>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="11"/>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>45647</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>45648</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
+        <v>45649</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="11"/>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="11"/>
+      <c r="B78" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>45650</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C1:C2"/>
+  <mergeCells count="17">
+    <mergeCell ref="A60:A64"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A22"/>
     <mergeCell ref="B23:B51"/>
     <mergeCell ref="A23:A53"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8396E5D-7194-4CC2-82D8-05616C4E0131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF95982-05D3-45C7-AEB5-EEE300E29EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -353,6 +353,30 @@
   </si>
   <si>
     <t>excel_sheet data to create pivot table and generate a graph about tasks  (2 task completed)</t>
+  </si>
+  <si>
+    <t>python practice</t>
+  </si>
+  <si>
+    <t>project work task</t>
+  </si>
+  <si>
+    <t>group discussion</t>
+  </si>
+  <si>
+    <t>variable creation,list,tuple,set,disct,if conditions, multiple if elif else conditions</t>
+  </si>
+  <si>
+    <t>accident per mile,heat map for accident location , percentage of rack per moth that are in accidents</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>if elif else conditions, loops</t>
+  </si>
+  <si>
+    <t>hmpv virus</t>
   </si>
 </sst>
 </file>
@@ -428,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -447,19 +471,16 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -471,8 +492,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,40 +781,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555B3504-34D2-4369-86F7-B6D585E34A71}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
@@ -799,21 +826,21 @@
       <c r="A3" s="9">
         <v>45658</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>45659</v>
       </c>
       <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E4" t="s">
@@ -821,11 +848,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E5" t="s">
@@ -833,11 +860,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E6" t="s">
@@ -851,7 +878,7 @@
       <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E7" t="s">
@@ -863,7 +890,7 @@
       <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E8" t="s">
@@ -886,26 +913,26 @@
       <c r="A10" s="5">
         <v>45661</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45662</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>45663</v>
       </c>
       <c r="B12" t="s">
@@ -919,7 +946,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>101</v>
       </c>
@@ -930,8 +957,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
       <c r="B14" t="s">
         <v>102</v>
       </c>
@@ -942,64 +969,122 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>45664</v>
+      </c>
       <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
+        <v>109</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>45665</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -1007,15 +1092,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1047,24 +1129,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1155,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1085,7 +1167,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1179,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1188,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -1117,7 +1199,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1208,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1217,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1226,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>45638</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1158,7 +1240,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -1167,7 +1249,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -1176,7 +1258,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="15"/>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -1185,7 +1267,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1194,7 +1276,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1206,7 +1288,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -1215,7 +1297,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1306,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1315,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +1324,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -1254,7 +1336,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -1263,7 +1345,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -1275,10 +1357,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>45639</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -1289,8 +1371,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -1299,8 +1381,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -1309,8 +1391,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
       <c r="C26" t="s">
         <v>32</v>
       </c>
@@ -1319,8 +1401,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -1329,8 +1411,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -1339,8 +1421,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
       <c r="C29" t="s">
         <v>35</v>
       </c>
@@ -1349,8 +1431,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
       <c r="C30" t="s">
         <v>36</v>
       </c>
@@ -1359,8 +1441,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -1369,8 +1451,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
       <c r="C32" t="s">
         <v>38</v>
       </c>
@@ -1379,8 +1461,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
       <c r="C33" t="s">
         <v>39</v>
       </c>
@@ -1389,8 +1471,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
       <c r="C34" t="s">
         <v>40</v>
       </c>
@@ -1399,8 +1481,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -1409,8 +1491,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -1419,8 +1501,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
       <c r="C37" t="s">
         <v>43</v>
       </c>
@@ -1429,8 +1511,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -1439,8 +1521,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
       <c r="C39" t="s">
         <v>45</v>
       </c>
@@ -1449,8 +1531,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -1459,8 +1541,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
       <c r="C41" t="s">
         <v>47</v>
       </c>
@@ -1469,8 +1551,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -1479,8 +1561,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
       <c r="C43" t="s">
         <v>49</v>
       </c>
@@ -1489,8 +1571,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
@@ -1499,8 +1581,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="16"/>
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -1509,8 +1591,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="16"/>
       <c r="C46" t="s">
         <v>23</v>
       </c>
@@ -1519,8 +1601,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="16"/>
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -1529,8 +1611,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
       <c r="C48" t="s">
         <v>53</v>
       </c>
@@ -1539,8 +1621,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="16"/>
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -1549,8 +1631,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="16"/>
       <c r="C50" t="s">
         <v>55</v>
       </c>
@@ -1559,8 +1641,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="16"/>
       <c r="C51" t="s">
         <v>56</v>
       </c>
@@ -1569,7 +1651,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+      <c r="A52" s="14"/>
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -1581,7 +1663,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1697,7 @@
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="A56" s="12">
         <v>45642</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -1629,7 +1711,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
+      <c r="A57" s="12"/>
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -1641,7 +1723,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58" s="12">
         <v>45643</v>
       </c>
       <c r="B58" t="s">
@@ -1655,7 +1737,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
+      <c r="A59" s="12"/>
       <c r="B59" t="s">
         <v>63</v>
       </c>
@@ -1667,7 +1749,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="A60" s="12">
         <v>45644</v>
       </c>
       <c r="B60" t="s">
@@ -1681,7 +1763,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
+      <c r="A61" s="12"/>
       <c r="B61" t="s">
         <v>67</v>
       </c>
@@ -1693,7 +1775,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
+      <c r="A62" s="12"/>
       <c r="B62" t="s">
         <v>69</v>
       </c>
@@ -1705,7 +1787,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
+      <c r="A63" s="12"/>
       <c r="B63" t="s">
         <v>74</v>
       </c>
@@ -1717,7 +1799,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
+      <c r="A64" s="12"/>
       <c r="B64" t="s">
         <v>71</v>
       </c>
@@ -1729,7 +1811,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65" s="12">
         <v>45645</v>
       </c>
       <c r="B65" t="s">
@@ -1743,7 +1825,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
+      <c r="A66" s="12"/>
       <c r="B66" t="s">
         <v>74</v>
       </c>
@@ -1755,7 +1837,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
+      <c r="A67" s="12"/>
       <c r="B67" t="s">
         <v>78</v>
       </c>
@@ -1767,7 +1849,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
+      <c r="A68" s="12"/>
       <c r="B68" t="s">
         <v>79</v>
       </c>
@@ -1779,7 +1861,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
+      <c r="A69" s="12"/>
       <c r="B69" t="s">
         <v>80</v>
       </c>
@@ -1791,7 +1873,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A70" s="12">
         <v>45646</v>
       </c>
       <c r="B70" t="s">
@@ -1805,7 +1887,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
+      <c r="A71" s="12"/>
       <c r="B71" t="s">
         <v>78</v>
       </c>
@@ -1817,7 +1899,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
+      <c r="A72" s="12"/>
       <c r="B72" t="s">
         <v>80</v>
       </c>
@@ -1851,7 +1933,7 @@
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+      <c r="A75" s="12">
         <v>45649</v>
       </c>
       <c r="B75" t="s">
@@ -1865,7 +1947,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
+      <c r="A76" s="12"/>
       <c r="B76" t="s">
         <v>88</v>
       </c>
@@ -1877,7 +1959,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
+      <c r="A77" s="12"/>
       <c r="B77" t="s">
         <v>89</v>
       </c>
@@ -1886,13 +1968,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="13" t="s">
+      <c r="A78" s="12"/>
+      <c r="B78" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
@@ -1909,28 +1991,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="B23:B51"/>
     <mergeCell ref="A23:A53"/>
     <mergeCell ref="D1:E1"/>
@@ -1938,11 +2020,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF95982-05D3-45C7-AEB5-EEE300E29EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8BBC2-F8F0-439C-9F59-5EC593DE615F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2724" yWindow="444" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna_01_2025" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -377,6 +377,21 @@
   </si>
   <si>
     <t>hmpv virus</t>
+  </si>
+  <si>
+    <t>project related task</t>
+  </si>
+  <si>
+    <t>Social media good or bad</t>
+  </si>
+  <si>
+    <t>aws_quicksight skill set</t>
+  </si>
+  <si>
+    <t>online learning vs traditional learning</t>
+  </si>
+  <si>
+    <t>aws_quicksight functions</t>
   </si>
 </sst>
 </file>
@@ -483,14 +498,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,8 +507,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555B3504-34D2-4369-86F7-B6D585E34A71}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,7 +818,7 @@
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -814,7 +829,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
@@ -1053,24 +1068,82 @@
       <c r="C21" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8">
+        <v>45666</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8">
+        <v>45667</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
@@ -1155,7 +1228,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="18">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1167,7 +1240,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1252,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1261,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="18">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -1199,7 +1272,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1281,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1290,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1226,7 +1299,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="19">
         <v>45638</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1240,7 +1313,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="19"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -1249,7 +1322,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="19"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1331,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="19"/>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -1267,7 +1340,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1276,7 +1349,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="19"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1288,7 +1361,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="19"/>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -1297,7 +1370,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="19"/>
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -1306,7 +1379,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="19"/>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -1315,7 +1388,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="19"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -1324,7 +1397,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -1336,7 +1409,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="19"/>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1418,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -1357,10 +1430,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="18">
         <v>45639</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
@@ -1371,8 +1444,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>30</v>
       </c>
@@ -1381,8 +1454,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
       <c r="C25" t="s">
         <v>31</v>
       </c>
@@ -1391,8 +1464,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
       <c r="C26" t="s">
         <v>32</v>
       </c>
@@ -1401,8 +1474,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -1411,8 +1484,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
       <c r="C28" t="s">
         <v>34</v>
       </c>
@@ -1421,8 +1494,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="C29" t="s">
         <v>35</v>
       </c>
@@ -1431,8 +1504,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="17"/>
       <c r="C30" t="s">
         <v>36</v>
       </c>
@@ -1441,8 +1514,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="17"/>
       <c r="C31" t="s">
         <v>37</v>
       </c>
@@ -1451,8 +1524,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="17"/>
       <c r="C32" t="s">
         <v>38</v>
       </c>
@@ -1461,8 +1534,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="17"/>
       <c r="C33" t="s">
         <v>39</v>
       </c>
@@ -1471,8 +1544,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="17"/>
       <c r="C34" t="s">
         <v>40</v>
       </c>
@@ -1481,8 +1554,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="17"/>
       <c r="C35" t="s">
         <v>41</v>
       </c>
@@ -1491,8 +1564,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="17"/>
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -1501,8 +1574,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="17"/>
       <c r="C37" t="s">
         <v>43</v>
       </c>
@@ -1511,8 +1584,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="17"/>
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -1521,8 +1594,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="17"/>
       <c r="C39" t="s">
         <v>45</v>
       </c>
@@ -1531,8 +1604,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="17"/>
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -1541,8 +1614,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="17"/>
       <c r="C41" t="s">
         <v>47</v>
       </c>
@@ -1551,8 +1624,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="17"/>
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -1561,8 +1634,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="17"/>
       <c r="C43" t="s">
         <v>49</v>
       </c>
@@ -1571,8 +1644,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
@@ -1581,8 +1654,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="17"/>
       <c r="C45" t="s">
         <v>51</v>
       </c>
@@ -1591,8 +1664,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="17"/>
       <c r="C46" t="s">
         <v>23</v>
       </c>
@@ -1601,8 +1674,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="17"/>
       <c r="C47" t="s">
         <v>52</v>
       </c>
@@ -1611,8 +1684,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="17"/>
       <c r="C48" t="s">
         <v>53</v>
       </c>
@@ -1621,8 +1694,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="17"/>
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -1631,8 +1704,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="17"/>
       <c r="C50" t="s">
         <v>55</v>
       </c>
@@ -1641,8 +1714,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="14"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>56</v>
       </c>
@@ -1651,7 +1724,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
+      <c r="A52" s="18"/>
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -1663,7 +1736,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+      <c r="A53" s="18"/>
       <c r="B53" t="s">
         <v>27</v>
       </c>
@@ -1969,12 +2042,12 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="12"/>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
@@ -1991,28 +2064,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A22"/>
     <mergeCell ref="B23:B51"/>
     <mergeCell ref="A23:A53"/>
     <mergeCell ref="D1:E1"/>
@@ -2020,11 +2093,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8BBC2-F8F0-439C-9F59-5EC593DE615F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C6F670-DFB3-47CE-9ACB-B8D575AC0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2724" yWindow="444" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prasanna_01_2025" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
   <si>
     <t>Date</t>
   </si>
@@ -392,6 +392,18 @@
   </si>
   <si>
     <t>aws_quicksight functions</t>
+  </si>
+  <si>
+    <t>aws_quicksight function</t>
+  </si>
+  <si>
+    <t>project task</t>
+  </si>
+  <si>
+    <t>if else condition, mutltiple conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tms booking, gauge and stacked bar combo chart data display wrong , how to check this </t>
   </si>
 </sst>
 </file>
@@ -501,20 +513,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555B3504-34D2-4369-86F7-B6D585E34A71}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,21 +1156,71 @@
       <c r="C27" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="5">
+        <v>45668</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="5">
+        <v>45669</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="8">
+        <v>45670</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
+      <c r="A31" s="12">
+        <v>45671</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
@@ -1167,7 +1229,10 @@
       <c r="A34" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A12:A14"/>
@@ -1228,7 +1293,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="15">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1240,7 +1305,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1317,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1326,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -1272,7 +1337,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1346,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1355,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +1364,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <v>45638</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1313,7 +1378,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1387,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1396,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -1340,7 +1405,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="16"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1414,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="16"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1361,7 +1426,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="16"/>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1435,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="16"/>
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1444,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="16"/>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1453,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="16"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -1397,7 +1462,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="16"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -1409,7 +1474,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1483,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -1430,7 +1495,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="15">
         <v>45639</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -1444,7 +1509,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>30</v>
@@ -1454,7 +1519,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="17"/>
       <c r="C25" t="s">
         <v>31</v>
@@ -1464,7 +1529,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="17"/>
       <c r="C26" t="s">
         <v>32</v>
@@ -1474,7 +1539,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="17"/>
       <c r="C27" t="s">
         <v>33</v>
@@ -1484,7 +1549,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="17"/>
       <c r="C28" t="s">
         <v>34</v>
@@ -1494,7 +1559,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="17"/>
       <c r="C29" t="s">
         <v>35</v>
@@ -1504,7 +1569,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="17"/>
       <c r="C30" t="s">
         <v>36</v>
@@ -1514,7 +1579,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="17"/>
       <c r="C31" t="s">
         <v>37</v>
@@ -1524,7 +1589,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="17"/>
       <c r="C32" t="s">
         <v>38</v>
@@ -1534,7 +1599,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="17"/>
       <c r="C33" t="s">
         <v>39</v>
@@ -1544,7 +1609,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="17"/>
       <c r="C34" t="s">
         <v>40</v>
@@ -1554,7 +1619,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="17"/>
       <c r="C35" t="s">
         <v>41</v>
@@ -1564,7 +1629,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="17"/>
       <c r="C36" t="s">
         <v>42</v>
@@ -1574,7 +1639,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="17"/>
       <c r="C37" t="s">
         <v>43</v>
@@ -1584,7 +1649,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="17"/>
       <c r="C38" t="s">
         <v>44</v>
@@ -1594,7 +1659,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="17"/>
       <c r="C39" t="s">
         <v>45</v>
@@ -1604,7 +1669,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="17"/>
       <c r="C40" t="s">
         <v>46</v>
@@ -1614,7 +1679,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="17"/>
       <c r="C41" t="s">
         <v>47</v>
@@ -1624,7 +1689,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="17"/>
       <c r="C42" t="s">
         <v>48</v>
@@ -1634,7 +1699,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="17"/>
       <c r="C43" t="s">
         <v>49</v>
@@ -1644,7 +1709,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="17"/>
       <c r="C44" s="2" t="s">
         <v>50</v>
@@ -1654,7 +1719,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="17"/>
       <c r="C45" t="s">
         <v>51</v>
@@ -1664,7 +1729,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="17"/>
       <c r="C46" t="s">
         <v>23</v>
@@ -1674,7 +1739,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="17"/>
       <c r="C47" t="s">
         <v>52</v>
@@ -1684,7 +1749,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="17"/>
       <c r="C48" t="s">
         <v>53</v>
@@ -1694,7 +1759,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="17"/>
       <c r="C49" t="s">
         <v>54</v>
@@ -1704,7 +1769,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="17"/>
       <c r="C50" t="s">
         <v>55</v>
@@ -1714,7 +1779,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>56</v>
@@ -1724,7 +1789,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
+      <c r="A52" s="15"/>
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -1736,7 +1801,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
+      <c r="A53" s="15"/>
       <c r="B53" t="s">
         <v>27</v>
       </c>
@@ -2042,12 +2107,12 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="12"/>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
@@ -2064,28 +2129,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="B23:B51"/>
     <mergeCell ref="A23:A53"/>
     <mergeCell ref="D1:E1"/>
@@ -2093,11 +2158,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C6F670-DFB3-47CE-9ACB-B8D575AC0DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E4264-0B4D-4DB8-B4E9-177823A73E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t xml:space="preserve">tms booking, gauge and stacked bar combo chart data display wrong , how to check this </t>
+  </si>
+  <si>
+    <t xml:space="preserve">project_related task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandas-- to display time and date , last modified </t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
 </sst>
 </file>
@@ -498,20 +507,20 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555B3504-34D2-4369-86F7-B6D585E34A71}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,24 +833,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
@@ -853,12 +862,12 @@
       <c r="A3" s="9">
         <v>45658</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -940,23 +949,23 @@
       <c r="A10" s="5">
         <v>45661</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45662</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -1164,23 +1173,23 @@
       <c r="A28" s="5">
         <v>45668</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>45669</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
@@ -1222,14 +1231,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>45672</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="A31:A32"/>
@@ -1267,24 +1297,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E4264-0B4D-4DB8-B4E9-177823A73E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CEA10A-23BF-4779-8DE8-1D66BDEC9E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>filters</t>
+  </si>
+  <si>
+    <t>KT to santhosh</t>
+  </si>
+  <si>
+    <t>aws quicksight project overview</t>
   </si>
 </sst>
 </file>
@@ -507,35 +513,35 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555B3504-34D2-4369-86F7-B6D585E34A71}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,24 +839,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
@@ -862,15 +868,15 @@
       <c r="A3" s="9">
         <v>45658</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>45659</v>
       </c>
       <c r="B4" t="s">
@@ -884,7 +890,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -896,7 +902,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>80</v>
       </c>
@@ -949,26 +955,26 @@
       <c r="A10" s="5">
         <v>45661</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>45662</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>45663</v>
       </c>
       <c r="B12" t="s">
@@ -982,7 +988,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>101</v>
       </c>
@@ -994,7 +1000,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>102</v>
       </c>
@@ -1173,23 +1179,23 @@
       <c r="A28" s="5">
         <v>45668</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>45669</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
@@ -1206,7 +1212,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>45671</v>
       </c>
       <c r="B31" t="s">
@@ -1220,7 +1226,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="10"/>
       <c r="B32" t="s">
         <v>123</v>
       </c>
@@ -1232,7 +1238,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>45672</v>
       </c>
       <c r="B33" t="s">
@@ -1246,7 +1252,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="10"/>
       <c r="B34" t="s">
         <v>63</v>
       </c>
@@ -1257,8 +1263,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>45673</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
@@ -1266,12 +1292,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1297,24 +1317,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1343,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="18">
         <v>45636</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1335,7 +1355,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1367,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1376,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="18">
         <v>45637</v>
       </c>
       <c r="B6" t="s">
@@ -1367,7 +1387,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +1396,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1385,7 +1405,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1394,7 +1414,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="A10" s="19">
         <v>45638</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1408,7 +1428,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -1417,7 +1437,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -1426,7 +1446,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1455,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1444,7 +1464,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="19"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +1476,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="19"/>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -1465,7 +1485,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1494,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1503,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -1492,7 +1512,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -1504,7 +1524,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="C21" t="s">
         <v>26</v>
       </c>
@@ -1513,7 +1533,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -1525,7 +1545,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="18">
         <v>45639</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -1539,7 +1559,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>30</v>
@@ -1549,7 +1569,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="17"/>
       <c r="C25" t="s">
         <v>31</v>
@@ -1559,7 +1579,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="17"/>
       <c r="C26" t="s">
         <v>32</v>
@@ -1569,7 +1589,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="17"/>
       <c r="C27" t="s">
         <v>33</v>
@@ -1579,7 +1599,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="17"/>
       <c r="C28" t="s">
         <v>34</v>
@@ -1589,7 +1609,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="17"/>
       <c r="C29" t="s">
         <v>35</v>
@@ -1599,7 +1619,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="17"/>
       <c r="C30" t="s">
         <v>36</v>
@@ -1609,7 +1629,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="17"/>
       <c r="C31" t="s">
         <v>37</v>
@@ -1619,7 +1639,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="17"/>
       <c r="C32" t="s">
         <v>38</v>
@@ -1629,7 +1649,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="17"/>
       <c r="C33" t="s">
         <v>39</v>
@@ -1639,7 +1659,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="17"/>
       <c r="C34" t="s">
         <v>40</v>
@@ -1649,7 +1669,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="17"/>
       <c r="C35" t="s">
         <v>41</v>
@@ -1659,7 +1679,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="17"/>
       <c r="C36" t="s">
         <v>42</v>
@@ -1669,7 +1689,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="17"/>
       <c r="C37" t="s">
         <v>43</v>
@@ -1679,7 +1699,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="17"/>
       <c r="C38" t="s">
         <v>44</v>
@@ -1689,7 +1709,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="17"/>
       <c r="C39" t="s">
         <v>45</v>
@@ -1699,7 +1719,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="17"/>
       <c r="C40" t="s">
         <v>46</v>
@@ -1709,7 +1729,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="17"/>
       <c r="C41" t="s">
         <v>47</v>
@@ -1719,7 +1739,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="17"/>
       <c r="C42" t="s">
         <v>48</v>
@@ -1729,7 +1749,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="17"/>
       <c r="C43" t="s">
         <v>49</v>
@@ -1739,7 +1759,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="17"/>
       <c r="C44" s="2" t="s">
         <v>50</v>
@@ -1749,7 +1769,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="17"/>
       <c r="C45" t="s">
         <v>51</v>
@@ -1759,7 +1779,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="17"/>
       <c r="C46" t="s">
         <v>23</v>
@@ -1769,7 +1789,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="17"/>
       <c r="C47" t="s">
         <v>52</v>
@@ -1779,7 +1799,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="17"/>
       <c r="C48" t="s">
         <v>53</v>
@@ -1789,7 +1809,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="17"/>
       <c r="C49" t="s">
         <v>54</v>
@@ -1799,7 +1819,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="17"/>
       <c r="C50" t="s">
         <v>55</v>
@@ -1809,7 +1829,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>56</v>
@@ -1819,7 +1839,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+      <c r="A52" s="18"/>
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -1831,7 +1851,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+      <c r="A53" s="18"/>
       <c r="B53" t="s">
         <v>27</v>
       </c>
@@ -1865,7 +1885,7 @@
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
+      <c r="A56" s="10">
         <v>45642</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -1879,7 +1899,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
+      <c r="A57" s="10"/>
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -1891,7 +1911,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+      <c r="A58" s="10">
         <v>45643</v>
       </c>
       <c r="B58" t="s">
@@ -1905,7 +1925,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
+      <c r="A59" s="10"/>
       <c r="B59" t="s">
         <v>63</v>
       </c>
@@ -1917,7 +1937,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
+      <c r="A60" s="10">
         <v>45644</v>
       </c>
       <c r="B60" t="s">
@@ -1931,7 +1951,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
+      <c r="A61" s="10"/>
       <c r="B61" t="s">
         <v>67</v>
       </c>
@@ -1943,7 +1963,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
+      <c r="A62" s="10"/>
       <c r="B62" t="s">
         <v>69</v>
       </c>
@@ -1955,7 +1975,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
+      <c r="A63" s="10"/>
       <c r="B63" t="s">
         <v>74</v>
       </c>
@@ -1967,7 +1987,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
+      <c r="A64" s="10"/>
       <c r="B64" t="s">
         <v>71</v>
       </c>
@@ -1979,7 +1999,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="12">
+      <c r="A65" s="10">
         <v>45645</v>
       </c>
       <c r="B65" t="s">
@@ -1993,7 +2013,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
+      <c r="A66" s="10"/>
       <c r="B66" t="s">
         <v>74</v>
       </c>
@@ -2005,7 +2025,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
+      <c r="A67" s="10"/>
       <c r="B67" t="s">
         <v>78</v>
       </c>
@@ -2017,7 +2037,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
+      <c r="A68" s="10"/>
       <c r="B68" t="s">
         <v>79</v>
       </c>
@@ -2029,7 +2049,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
+      <c r="A69" s="10"/>
       <c r="B69" t="s">
         <v>80</v>
       </c>
@@ -2041,7 +2061,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="12">
+      <c r="A70" s="10">
         <v>45646</v>
       </c>
       <c r="B70" t="s">
@@ -2055,7 +2075,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
+      <c r="A71" s="10"/>
       <c r="B71" t="s">
         <v>78</v>
       </c>
@@ -2067,7 +2087,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
+      <c r="A72" s="10"/>
       <c r="B72" t="s">
         <v>80</v>
       </c>
@@ -2101,7 +2121,7 @@
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="12">
+      <c r="A75" s="10">
         <v>45649</v>
       </c>
       <c r="B75" t="s">
@@ -2115,7 +2135,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
+      <c r="A76" s="10"/>
       <c r="B76" t="s">
         <v>88</v>
       </c>
@@ -2127,7 +2147,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
+      <c r="A77" s="10"/>
       <c r="B77" t="s">
         <v>89</v>
       </c>
@@ -2136,13 +2156,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
-      <c r="B78" s="18" t="s">
+      <c r="A78" s="10"/>
+      <c r="B78" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
@@ -2159,28 +2179,28 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A80:E81"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A22"/>
     <mergeCell ref="B23:B51"/>
     <mergeCell ref="A23:A53"/>
     <mergeCell ref="D1:E1"/>
@@ -2188,11 +2208,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A80:E81"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Daily_tasks.xlsx
+++ b/Daily_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CEA10A-23BF-4779-8DE8-1D66BDEC9E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6021D8-BB8E-4B81-B2B4-010B7F0C9FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -419,6 +419,30 @@
   </si>
   <si>
     <t>aws quicksight project overview</t>
+  </si>
+  <si>
+    <t>repalce values one column to another column</t>
+  </si>
+  <si>
+    <t>kt to shamshad garu</t>
+  </si>
+  <si>
+    <t>cilent code under standing</t>
+  </si>
+  <si>
+    <t>aws quicksight (python,sql code)</t>
+  </si>
+  <si>
+    <t>aws quicksight over view</t>
+  </si>
+  <si>
+    <t>cilent code understanding, then steps prepare</t>
+  </si>
+  <si>
+    <t>problem ki solution(replace data one column to another column , but holiday data can change)</t>
+  </si>
+  <si>
+    <t>project project</t>
   </si>
 </sst>
 </file>
@@ -823,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555B3504-34D2-4369-86F7-B6D585E34A71}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1288,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="10">
         <v>45673</v>
       </c>
       <c r="B35" t="s">
@@ -1277,21 +1301,164 @@
         <v>9</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>45674</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>45675</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>45676</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>45677</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>45678</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>45679</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
